--- a/translation/xlsx/tsum_badend2.xlsx
+++ b/translation/xlsx/tsum_badend2.xlsx
@@ -578,7 +578,7 @@
     <col customWidth="1" min="1" max="1" width="7.63"/>
     <col customWidth="1" min="2" max="2" width="30.25"/>
     <col customWidth="1" min="3" max="3" width="21.25"/>
-    <col customWidth="1" min="4" max="4" width="61.88"/>
+    <col customWidth="1" min="4" max="4" width="114.5"/>
     <col customWidth="1" min="5" max="26" width="7.63"/>
   </cols>
   <sheetData>
